--- a/oldsite/class_fall_2020.xlsx
+++ b/oldsite/class_fall_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/website_fall_2021/oldsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12242E-9FD2-8748-B97A-F2FD7DA2B026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF60AF-7119-5441-B10E-B3EDE9B69047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,18 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8081,7 +8092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
@@ -8492,8 +8503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -9022,7 +9033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1">
+    <row r="38" spans="1:4" s="11" customFormat="1" ht="17">
       <c r="A38" s="14">
         <v>7</v>
       </c>
